--- a/articles/images/what_evkart/block.xlsx
+++ b/articles/images/what_evkart/block.xlsx
@@ -1542,14 +1542,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>93132</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>83607</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>529</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>21022</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>11497</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>76728</xdr:rowOff>
     </xdr:to>
@@ -1562,8 +1562,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2209799" y="2500842"/>
-          <a:ext cx="1197890" cy="314324"/>
+          <a:off x="2074332" y="2500842"/>
+          <a:ext cx="1185190" cy="314324"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1619,7 +1619,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>速度指示</a:t>
+            <a:t>速度設定値</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3044,14 +3044,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>100012</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>80962</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>86783</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>27902</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>8852</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>43920</xdr:rowOff>
     </xdr:to>
@@ -3064,8 +3064,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2110845" y="6158971"/>
-          <a:ext cx="1197890" cy="314324"/>
+          <a:off x="1966912" y="6158971"/>
+          <a:ext cx="1185190" cy="314324"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3121,7 +3121,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>速度指示</a:t>
+            <a:t>速度設定値</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5143,9 +5143,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CY32" sqref="CY32"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.46484375" defaultRowHeight="9.6" customHeight="1"/>
   <cols>
